--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il1b-Il1r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H2">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I2">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J2">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N2">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O2">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P2">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q2">
-        <v>5.3800035690855</v>
+        <v>2.195579783111</v>
       </c>
       <c r="R2">
-        <v>21.520014276342</v>
+        <v>8.782319132444</v>
       </c>
       <c r="S2">
-        <v>0.0001020771184938524</v>
+        <v>4.027705045636484E-06</v>
       </c>
       <c r="T2">
-        <v>4.986427973833263E-05</v>
+        <v>2.015040653106216E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H3">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I3">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J3">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>255.851719</v>
       </c>
       <c r="O3">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P3">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q3">
-        <v>22.9369786824905</v>
+        <v>11.73263492013617</v>
       </c>
       <c r="R3">
-        <v>137.621872094943</v>
+        <v>70.39580952081701</v>
       </c>
       <c r="S3">
-        <v>0.0004351931482568764</v>
+        <v>2.152305884302005E-05</v>
       </c>
       <c r="T3">
-        <v>0.0003188852683894108</v>
+        <v>1.615181774353182E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H4">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I4">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J4">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N4">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O4">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P4">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q4">
-        <v>0.100046511113</v>
+        <v>0.06777125190183333</v>
       </c>
       <c r="R4">
-        <v>0.6002790666780001</v>
+        <v>0.406627511411</v>
       </c>
       <c r="S4">
-        <v>1.898225426551929E-06</v>
+        <v>1.243237049884583E-07</v>
       </c>
       <c r="T4">
-        <v>1.390913728844653E-06</v>
+        <v>9.329779000373871E-08</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H5">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I5">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J5">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N5">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O5">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P5">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q5">
-        <v>4.189550503245751</v>
+        <v>3.77795544705425</v>
       </c>
       <c r="R5">
-        <v>16.758202012983</v>
+        <v>15.111821788217</v>
       </c>
       <c r="S5">
-        <v>7.949014116146567E-05</v>
+        <v>6.930511172192259E-06</v>
       </c>
       <c r="T5">
-        <v>3.883062819365916E-05</v>
+        <v>3.467300013416782E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H6">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I6">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J6">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N6">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O6">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P6">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q6">
-        <v>2.742519134014</v>
+        <v>0.0499773872345</v>
       </c>
       <c r="R6">
-        <v>16.455114804084</v>
+        <v>0.299864323407</v>
       </c>
       <c r="S6">
-        <v>5.203499347529068E-05</v>
+        <v>9.168155777372969E-08</v>
       </c>
       <c r="T6">
-        <v>3.812834123531523E-05</v>
+        <v>6.88017359616427E-08</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.2689485</v>
+        <v>0.1375715</v>
       </c>
       <c r="H7">
-        <v>0.5378970000000001</v>
+        <v>0.275143</v>
       </c>
       <c r="I7">
-        <v>0.0006726644372413392</v>
+        <v>3.272648275833727E-05</v>
       </c>
       <c r="J7">
-        <v>0.0004485435312549028</v>
+        <v>2.181817268367789E-05</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3862156666666667</v>
+        <v>0.115713</v>
       </c>
       <c r="N7">
-        <v>1.158647</v>
+        <v>0.347139</v>
       </c>
       <c r="O7">
-        <v>0.002929856728244252</v>
+        <v>0.0008923181553585264</v>
       </c>
       <c r="P7">
-        <v>0.003219531369230071</v>
+        <v>0.001004426354828836</v>
       </c>
       <c r="Q7">
-        <v>0.1038721242265</v>
+        <v>0.0159188109795</v>
       </c>
       <c r="R7">
-        <v>0.6232327453590001</v>
+        <v>0.095512865877</v>
       </c>
       <c r="S7">
-        <v>1.970810427302171E-06</v>
+        <v>2.920243472629213E-08</v>
       </c>
       <c r="T7">
-        <v>1.444099969340389E-06</v>
+        <v>2.191474765769266E-08</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H8">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I8">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J8">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N8">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O8">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P8">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q8">
-        <v>3722.564313316093</v>
+        <v>6891.184397260349</v>
       </c>
       <c r="R8">
-        <v>22335.38587989656</v>
+        <v>41347.1063835621</v>
       </c>
       <c r="S8">
-        <v>0.07062981160362765</v>
+        <v>0.01264160764312053</v>
       </c>
       <c r="T8">
-        <v>0.0517535869296868</v>
+        <v>0.009486799442688829</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H9">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I9">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J9">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>255.851719</v>
       </c>
       <c r="O9">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P9">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q9">
-        <v>15870.69175741177</v>
+        <v>36824.78374155567</v>
       </c>
       <c r="R9">
-        <v>142836.2258167059</v>
+        <v>331423.0536740011</v>
       </c>
       <c r="S9">
-        <v>0.3011214513703572</v>
+        <v>0.06755362224650148</v>
       </c>
       <c r="T9">
-        <v>0.3309675091025335</v>
+        <v>0.07604266213266923</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H10">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I10">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J10">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N10">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O10">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P10">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q10">
-        <v>69.22478157469733</v>
+        <v>212.7111013141916</v>
       </c>
       <c r="R10">
-        <v>623.023034172276</v>
+        <v>1914.399911827724</v>
       </c>
       <c r="S10">
-        <v>0.00131343151371042</v>
+        <v>0.0003902101771096284</v>
       </c>
       <c r="T10">
-        <v>0.001443614045067998</v>
+        <v>0.0004392454419453902</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H11">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I11">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J11">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N11">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O11">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P11">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q11">
-        <v>2898.858893297931</v>
+        <v>11857.72789062377</v>
       </c>
       <c r="R11">
-        <v>17393.15335978759</v>
+        <v>71146.36734374263</v>
       </c>
       <c r="S11">
-        <v>0.05500129487803099</v>
+        <v>0.02175253699374918</v>
       </c>
       <c r="T11">
-        <v>0.04030188147308202</v>
+        <v>0.01632402789701107</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H12">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I12">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J12">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N12">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O12">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P12">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q12">
-        <v>1897.620275854659</v>
+        <v>156.8621617740653</v>
       </c>
       <c r="R12">
-        <v>17078.58248269193</v>
+        <v>1411.759455966588</v>
       </c>
       <c r="S12">
-        <v>0.03600436454499952</v>
+        <v>0.0002877574867954176</v>
       </c>
       <c r="T12">
-        <v>0.0395729855712668</v>
+        <v>0.0003239181648125937</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,14 +1210,14 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>186.092458</v>
+        <v>431.7905373333334</v>
       </c>
       <c r="H13">
-        <v>558.277374</v>
+        <v>1295.371612</v>
       </c>
       <c r="I13">
-        <v>0.4654340088731765</v>
+        <v>0.1027173911402618</v>
       </c>
       <c r="J13">
-        <v>0.4655383925801297</v>
+        <v>0.1027198275811131</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3862156666666667</v>
+        <v>0.115713</v>
       </c>
       <c r="N13">
-        <v>1.158647</v>
+        <v>0.347139</v>
       </c>
       <c r="O13">
-        <v>0.002929856728244252</v>
+        <v>0.0008923181553585264</v>
       </c>
       <c r="P13">
-        <v>0.003219531369230071</v>
+        <v>0.001004426354828836</v>
       </c>
       <c r="Q13">
-        <v>71.87182272810867</v>
+        <v>49.963778446452</v>
       </c>
       <c r="R13">
-        <v>646.846404552978</v>
+        <v>449.674006018068</v>
       </c>
       <c r="S13">
-        <v>0.001363654962450771</v>
+        <v>9.165659298551862E-05</v>
       </c>
       <c r="T13">
-        <v>0.001498815458492671</v>
+        <v>0.0001031745019859439</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G14">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H14">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I14">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J14">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N14">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O14">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P14">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q14">
-        <v>26.85276543428767</v>
+        <v>2.578313827362</v>
       </c>
       <c r="R14">
-        <v>161.116592605726</v>
+        <v>10.313255309448</v>
       </c>
       <c r="S14">
-        <v>0.0005094890521772153</v>
+        <v>4.729815646683441E-06</v>
       </c>
       <c r="T14">
-        <v>0.0003733251633113934</v>
+        <v>2.366303068813443E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G15">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H15">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I15">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J15">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>255.851719</v>
       </c>
       <c r="O15">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P15">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q15">
-        <v>114.4834386117088</v>
+        <v>13.777870919869</v>
       </c>
       <c r="R15">
-        <v>1030.350947505379</v>
+        <v>82.667225519214</v>
       </c>
       <c r="S15">
-        <v>0.002172143452822561</v>
+        <v>2.52749641115087E-05</v>
       </c>
       <c r="T15">
-        <v>0.002387438373195984</v>
+        <v>1.896740685331478E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G16">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H16">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I16">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J16">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N16">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O16">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P16">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q16">
-        <v>0.4993538500371112</v>
+        <v>0.079585154327</v>
       </c>
       <c r="R16">
-        <v>4.494184650334001</v>
+        <v>0.477510925962</v>
       </c>
       <c r="S16">
-        <v>9.474455075364196E-06</v>
+        <v>1.459958458837798E-07</v>
       </c>
       <c r="T16">
-        <v>1.041352843554283E-05</v>
+        <v>1.095614852529339E-07</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H17">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I17">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J17">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N17">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O17">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P17">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q17">
-        <v>20.91095581891651</v>
+        <v>4.4365296325035</v>
       </c>
       <c r="R17">
-        <v>125.465734913499</v>
+        <v>17.746118530014</v>
       </c>
       <c r="S17">
-        <v>0.0003967525462645897</v>
+        <v>8.138639699364883E-06</v>
       </c>
       <c r="T17">
-        <v>0.0002907181390757724</v>
+        <v>4.071720662110402E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H18">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I18">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J18">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N18">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O18">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P18">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q18">
-        <v>13.68850820618356</v>
+        <v>0.05868945849899999</v>
       </c>
       <c r="R18">
-        <v>123.196573855652</v>
+        <v>0.3521367509939999</v>
       </c>
       <c r="S18">
-        <v>0.0002597179455782744</v>
+        <v>1.076635109962409E-07</v>
       </c>
       <c r="T18">
-        <v>0.0002854602391363562</v>
+        <v>8.079527263867343E-08</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.342380333333334</v>
+        <v>0.161553</v>
       </c>
       <c r="H19">
-        <v>4.027141</v>
+        <v>0.323106</v>
       </c>
       <c r="I19">
-        <v>0.003357414194485219</v>
+        <v>3.843137182525204E-05</v>
       </c>
       <c r="J19">
-        <v>0.003358167167694559</v>
+        <v>2.562152227435343E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3862156666666667</v>
+        <v>0.115713</v>
       </c>
       <c r="N19">
-        <v>1.158647</v>
+        <v>0.347139</v>
       </c>
       <c r="O19">
-        <v>0.002929856728244252</v>
+        <v>0.0008923181553585264</v>
       </c>
       <c r="P19">
-        <v>0.003219531369230071</v>
+        <v>0.001004426354828836</v>
       </c>
       <c r="Q19">
-        <v>0.5184483153585556</v>
+        <v>0.018693782289</v>
       </c>
       <c r="R19">
-        <v>4.666034838227</v>
+        <v>0.112162693734</v>
       </c>
       <c r="S19">
-        <v>9.836742567215276E-06</v>
+        <v>3.429301081500655E-08</v>
       </c>
       <c r="T19">
-        <v>1.081172453951113E-05</v>
+        <v>2.573493222319464E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H20">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I20">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J20">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>20.003843</v>
+        <v>15.959554</v>
       </c>
       <c r="N20">
-        <v>40.00768599999999</v>
+        <v>31.919108</v>
       </c>
       <c r="O20">
-        <v>0.1517504313331628</v>
+        <v>0.1230717359814782</v>
       </c>
       <c r="P20">
-        <v>0.1111693208434551</v>
+        <v>0.09235606860026654</v>
       </c>
       <c r="Q20">
-        <v>4243.252571010515</v>
+        <v>58840.9520887137</v>
       </c>
       <c r="R20">
-        <v>25459.51542606308</v>
+        <v>353045.7125322822</v>
       </c>
       <c r="S20">
-        <v>0.08050905355886404</v>
+        <v>0.107941420048039</v>
       </c>
       <c r="T20">
-        <v>0.0589925444707186</v>
+        <v>0.08100382739785797</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,13 +1706,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H21">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I21">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J21">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>255.851719</v>
       </c>
       <c r="O21">
-        <v>0.6469691634682589</v>
+        <v>0.6576648948789622</v>
       </c>
       <c r="P21">
-        <v>0.710934939797831</v>
+        <v>0.7402919565126984</v>
       </c>
       <c r="Q21">
-        <v>18090.58163547558</v>
+        <v>314431.4838934731</v>
       </c>
       <c r="R21">
-        <v>162815.2347192802</v>
+        <v>2829883.355041258</v>
       </c>
       <c r="S21">
-        <v>0.3432403754968222</v>
+        <v>0.5768122315237598</v>
       </c>
       <c r="T21">
-        <v>0.3772611070537121</v>
+        <v>0.6492966058237362</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H22">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I22">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J22">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.3719913333333333</v>
+        <v>0.4926256666666666</v>
       </c>
       <c r="N22">
-        <v>1.115974</v>
+        <v>1.477877</v>
       </c>
       <c r="O22">
-        <v>0.002821950026578976</v>
+        <v>0.00379887157158024</v>
       </c>
       <c r="P22">
-        <v>0.003100955942789443</v>
+        <v>0.004276150498778228</v>
       </c>
       <c r="Q22">
-        <v>78.90749700246579</v>
+        <v>1816.25145978415</v>
       </c>
       <c r="R22">
-        <v>710.1674730221921</v>
+        <v>16346.26313805735</v>
       </c>
       <c r="S22">
-        <v>0.00149714583236664</v>
+        <v>0.003331842106121005</v>
       </c>
       <c r="T22">
-        <v>0.001645537455557058</v>
+        <v>0.00375053380010695</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H23">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I23">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J23">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.5775195</v>
+        <v>27.4617595</v>
       </c>
       <c r="N23">
-        <v>31.155039</v>
+        <v>54.923519</v>
       </c>
       <c r="O23">
-        <v>0.1181720584002661</v>
+        <v>0.2117707308594496</v>
       </c>
       <c r="P23">
-        <v>0.08657047864456238</v>
+        <v>0.1589179838149626</v>
       </c>
       <c r="Q23">
-        <v>3304.332555916453</v>
+        <v>101248.197475398</v>
       </c>
       <c r="R23">
-        <v>19825.99533549872</v>
+        <v>607489.1848523881</v>
       </c>
       <c r="S23">
-        <v>0.06269452083480904</v>
+        <v>0.1857358493506601</v>
       </c>
       <c r="T23">
-        <v>0.04593904840421094</v>
+        <v>0.1393840721726614</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>212.1218693333334</v>
+        <v>3686.879476</v>
       </c>
       <c r="H24">
-        <v>636.3656080000001</v>
+        <v>11060.638428</v>
       </c>
       <c r="I24">
-        <v>0.5305359124950968</v>
+        <v>0.8770610017582243</v>
       </c>
       <c r="J24">
-        <v>0.5306548967209209</v>
+        <v>0.8770818055114159</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.19719066666667</v>
+        <v>0.363283</v>
       </c>
       <c r="N24">
-        <v>30.591572</v>
+        <v>1.089849</v>
       </c>
       <c r="O24">
-        <v>0.07735654004348906</v>
+        <v>0.002801448553171308</v>
       </c>
       <c r="P24">
-        <v>0.08500477340213224</v>
+        <v>0.003153414218465375</v>
       </c>
       <c r="Q24">
-        <v>2163.047146161753</v>
+        <v>1339.380636679708</v>
       </c>
       <c r="R24">
-        <v>19467.42431545578</v>
+        <v>12054.42573011737</v>
       </c>
       <c r="S24">
-        <v>0.04104042255943596</v>
+        <v>0.002457041274418555</v>
       </c>
       <c r="T24">
-        <v>0.04510819925049377</v>
+        <v>0.002765802236256981</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3686.879476</v>
+      </c>
+      <c r="H25">
+        <v>11060.638428</v>
+      </c>
+      <c r="I25">
+        <v>0.8770610017582243</v>
+      </c>
+      <c r="J25">
+        <v>0.8770818055114159</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.115713</v>
+      </c>
+      <c r="N25">
+        <v>0.347139</v>
+      </c>
+      <c r="O25">
+        <v>0.0008923181553585264</v>
+      </c>
+      <c r="P25">
+        <v>0.001004426354828836</v>
+      </c>
+      <c r="Q25">
+        <v>426.619884806388</v>
+      </c>
+      <c r="R25">
+        <v>3839.578963257492</v>
+      </c>
+      <c r="S25">
+        <v>0.0007826174552258</v>
+      </c>
+      <c r="T25">
+        <v>0.0008809640807965253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H26">
+        <v>254.117824</v>
+      </c>
+      <c r="I26">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J26">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>15.959554</v>
+      </c>
+      <c r="N26">
+        <v>31.919108</v>
+      </c>
+      <c r="O26">
+        <v>0.1230717359814782</v>
+      </c>
+      <c r="P26">
+        <v>0.09235606860026654</v>
+      </c>
+      <c r="Q26">
+        <v>1351.869044830165</v>
+      </c>
+      <c r="R26">
+        <v>8111.214268980991</v>
+      </c>
+      <c r="S26">
+        <v>0.002479950769626374</v>
+      </c>
+      <c r="T26">
+        <v>0.001861060415997829</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H27">
+        <v>254.117824</v>
+      </c>
+      <c r="I27">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J27">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>85.28390633333333</v>
+      </c>
+      <c r="N27">
+        <v>255.851719</v>
+      </c>
+      <c r="O27">
+        <v>0.6576648948789622</v>
+      </c>
+      <c r="P27">
+        <v>0.7402919565126984</v>
+      </c>
+      <c r="Q27">
+        <v>7224.053566548828</v>
+      </c>
+      <c r="R27">
+        <v>65016.48209893945</v>
+      </c>
+      <c r="S27">
+        <v>0.01325224308574623</v>
+      </c>
+      <c r="T27">
+        <v>0.01491756933169622</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H28">
+        <v>254.117824</v>
+      </c>
+      <c r="I28">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J28">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4926256666666666</v>
+      </c>
+      <c r="N28">
+        <v>1.477877</v>
+      </c>
+      <c r="O28">
+        <v>0.00379887157158024</v>
+      </c>
+      <c r="P28">
+        <v>0.004276150498778228</v>
+      </c>
+      <c r="Q28">
+        <v>41.72832081996089</v>
+      </c>
+      <c r="R28">
+        <v>375.5548873796479</v>
+      </c>
+      <c r="S28">
+        <v>7.654896879873369E-05</v>
+      </c>
+      <c r="T28">
+        <v>8.616839745063124E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H29">
+        <v>254.117824</v>
+      </c>
+      <c r="I29">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J29">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>27.4617595</v>
+      </c>
+      <c r="N29">
+        <v>54.923519</v>
+      </c>
+      <c r="O29">
+        <v>0.2117707308594496</v>
+      </c>
+      <c r="P29">
+        <v>0.1589179838149626</v>
+      </c>
+      <c r="Q29">
+        <v>2326.174189117109</v>
+      </c>
+      <c r="R29">
+        <v>13957.04513470266</v>
+      </c>
+      <c r="S29">
+        <v>0.004267275364168659</v>
+      </c>
+      <c r="T29">
+        <v>0.003202344724614631</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>212.1218693333334</v>
-      </c>
-      <c r="H25">
-        <v>636.3656080000001</v>
-      </c>
-      <c r="I25">
-        <v>0.5305359124950968</v>
-      </c>
-      <c r="J25">
-        <v>0.5306548967209209</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.3862156666666667</v>
-      </c>
-      <c r="N25">
-        <v>1.158647</v>
-      </c>
-      <c r="O25">
-        <v>0.002929856728244252</v>
-      </c>
-      <c r="P25">
-        <v>0.003219531369230071</v>
-      </c>
-      <c r="Q25">
-        <v>81.92478917915291</v>
-      </c>
-      <c r="R25">
-        <v>737.323102612376</v>
-      </c>
-      <c r="S25">
-        <v>0.001554394212798963</v>
-      </c>
-      <c r="T25">
-        <v>0.001708460086228549</v>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H30">
+        <v>254.117824</v>
+      </c>
+      <c r="I30">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J30">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.363283</v>
+      </c>
+      <c r="N30">
+        <v>1.089849</v>
+      </c>
+      <c r="O30">
+        <v>0.002801448553171308</v>
+      </c>
+      <c r="P30">
+        <v>0.003153414218465375</v>
+      </c>
+      <c r="Q30">
+        <v>30.77222848539733</v>
+      </c>
+      <c r="R30">
+        <v>276.9500563685759</v>
+      </c>
+      <c r="S30">
+        <v>5.645044688856455E-05</v>
+      </c>
+      <c r="T30">
+        <v>6.354422038719933E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>84.70594133333333</v>
+      </c>
+      <c r="H31">
+        <v>254.117824</v>
+      </c>
+      <c r="I31">
+        <v>0.02015044924693023</v>
+      </c>
+      <c r="J31">
+        <v>0.020150927212513</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.115713</v>
+      </c>
+      <c r="N31">
+        <v>0.347139</v>
+      </c>
+      <c r="O31">
+        <v>0.0008923181553585264</v>
+      </c>
+      <c r="P31">
+        <v>0.001004426354828836</v>
+      </c>
+      <c r="Q31">
+        <v>9.801578589503999</v>
+      </c>
+      <c r="R31">
+        <v>88.21420730553599</v>
+      </c>
+      <c r="S31">
+        <v>1.798061170166639E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.024012236648562E-05</v>
       </c>
     </row>
   </sheetData>
